--- a/premise/data/additional_inventories/lci-lithium.xlsx
+++ b/premise/data/additional_inventories/lci-lithium.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahnme_a\PycharmProjects\premise\premise\data\additional_inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD59F9B-73C5-9745-8790-F5EF051E0105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="2020" windowWidth="29040" windowHeight="17520" tabRatio="847" activeTab="6" xr2:uid="{EF7E5FDC-15C0-45A1-93C9-9ABA15D611A1}"/>
+    <workbookView xWindow="675" yWindow="2025" windowWidth="29040" windowHeight="17520" tabRatio="847" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="3" r:id="rId1"/>
@@ -21,13 +20,14 @@
     <sheet name="LCI - Salar del Hombre Muerto" sheetId="6" r:id="rId6"/>
     <sheet name="LCI - Chaerhan salt lake" sheetId="7" r:id="rId7"/>
     <sheet name="LCI - Lithium hydroxide" sheetId="18" r:id="rId8"/>
+    <sheet name="LCI - Lithium hydroxide (old)" sheetId="19" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'LCI - Chaerhan salt lake'!$A$1:$M$105</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'LCI - Salar de Cauchari-Olaroz'!$A$1:$M$128</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'LCI - Salar de Olaroz'!$A$1:$M$88</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,15 +47,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{3FE61BE9-A688-4A7C-B619-D28C550B4BCA}" keepAlive="1" name="Query - CF_results_alternative_lithium_ecoinvent_regions_2022-02-14" description="Connection to the 'CF_results_alternative_lithium_ecoinvent_regions_2022-02-14' query in the workbook." type="5" refreshedVersion="7" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" keepAlive="1" name="Query - CF_results_alternative_lithium_ecoinvent_regions_2022-02-14" description="Connection to the 'CF_results_alternative_lithium_ecoinvent_regions_2022-02-14' query in the workbook." type="5" refreshedVersion="7" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=CF_results_alternative_lithium_ecoinvent_regions_2022-02-14;Extended Properties=&quot;&quot;" command="SELECT * FROM [CF_results_alternative_lithium_ecoinvent_regions_2022-02-14]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2533" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2609" uniqueCount="158">
   <si>
     <t>database</t>
   </si>
@@ -536,7 +536,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -924,7 +924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A3B33F-DDA2-424C-84A1-C31A11594DB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
@@ -934,44 +934,44 @@
       <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.1640625" style="4" customWidth="1"/>
-    <col min="2" max="3" width="11.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" style="4" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" style="4" customWidth="1"/>
     <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>78</v>
       </c>
@@ -983,21 +983,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC99707D-554A-864F-96F5-71793F44A41F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1019,7 +1019,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1033,7 +1033,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1047,7 +1047,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1061,7 +1061,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1075,7 +1075,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>84</v>
       </c>
@@ -1089,7 +1089,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1101,7 +1101,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>134</v>
       </c>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>135</v>
       </c>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>136</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>137</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>138</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>139</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>154</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
@@ -1308,7 +1308,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>3</v>
       </c>
@@ -1322,7 +1322,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>4</v>
       </c>
@@ -1336,7 +1336,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
@@ -1350,7 +1350,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>7</v>
       </c>
@@ -1364,7 +1364,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>84</v>
       </c>
@@ -1378,7 +1378,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>8</v>
       </c>
@@ -1390,7 +1390,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>9</v>
       </c>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>155</v>
       </c>
@@ -1438,7 +1438,7 @@
       </c>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>142</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>154</v>
       </c>
@@ -1491,30 +1491,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5847DB-F772-4DD2-AE56-2F21E3F4EB40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:M154"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView topLeftCell="A123" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="E150" sqref="E150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="30.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.83203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="49.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="2" customWidth="1"/>
     <col min="9" max="13" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1541,7 +1541,7 @@
       <c r="L2"/>
       <c r="M2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1560,7 +1560,7 @@
       <c r="L3"/>
       <c r="M3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1579,7 +1579,7 @@
       <c r="L4"/>
       <c r="M4"/>
     </row>
-    <row r="5" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1598,7 +1598,7 @@
       <c r="L5"/>
       <c r="M5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>84</v>
       </c>
@@ -1611,7 +1611,7 @@
       <c r="L6"/>
       <c r="M6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1628,7 +1628,7 @@
       <c r="L7"/>
       <c r="M7"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>108</v>
       </c>
@@ -1698,7 +1698,7 @@
       <c r="L9"/>
       <c r="M9"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1733,7 +1733,7 @@
       <c r="L10"/>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -1766,7 +1766,7 @@
       <c r="L11"/>
       <c r="M11"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -1781,7 +1781,7 @@
       <c r="L12"/>
       <c r="M12"/>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1809,7 +1809,7 @@
       <c r="L14"/>
       <c r="M14"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1828,7 +1828,7 @@
       <c r="L15"/>
       <c r="M15"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1847,7 +1847,7 @@
       <c r="L16"/>
       <c r="M16"/>
     </row>
-    <row r="17" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1866,7 +1866,7 @@
       <c r="L17"/>
       <c r="M17"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>84</v>
       </c>
@@ -1879,7 +1879,7 @@
       <c r="L18"/>
       <c r="M18"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1896,7 +1896,7 @@
       <c r="L19"/>
       <c r="M19"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>B14</f>
         <v>filtering, through water ion exchanger</v>
@@ -1968,7 +1968,7 @@
       <c r="L21"/>
       <c r="M21"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -2003,7 +2003,7 @@
       <c r="L22"/>
       <c r="M22"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -2036,7 +2036,7 @@
       <c r="L23"/>
       <c r="M23"/>
     </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -2063,7 +2063,7 @@
       <c r="L26"/>
       <c r="M26"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -2082,7 +2082,7 @@
       <c r="L27"/>
       <c r="M27"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -2101,7 +2101,7 @@
       <c r="L28"/>
       <c r="M28"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -2120,7 +2120,7 @@
       <c r="L29"/>
       <c r="M29"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>84</v>
       </c>
@@ -2133,7 +2133,7 @@
       <c r="L30"/>
       <c r="M30"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -2150,7 +2150,7 @@
       <c r="L31"/>
       <c r="M31"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>86</v>
       </c>
@@ -2220,7 +2220,7 @@
       <c r="L33"/>
       <c r="M33"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>57</v>
       </c>
@@ -2255,7 +2255,7 @@
       <c r="L34"/>
       <c r="M34"/>
     </row>
-    <row r="36" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>2</v>
       </c>
@@ -2274,7 +2274,7 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>3</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>4</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>6</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>7</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>84</v>
       </c>
@@ -2319,12 +2319,12 @@
       <c r="L41"/>
       <c r="M41"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>9</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>88</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>19</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>0.13720384492617166</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>23</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>2.5843527381338785E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>28</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>0.21699341161764388</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>108</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>0.1110776002800187</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>38</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>0.26400000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>31</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>0.18977295444631392</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>34</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>5.2655713531501343E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>36</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>5.2655713531501343E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>2</v>
       </c>
@@ -2660,7 +2660,7 @@
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>3</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>4</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>6</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>7</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>84</v>
       </c>
@@ -2705,12 +2705,12 @@
       <c r="L59"/>
       <c r="M59"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>9</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>92</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>88</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>1.2896000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>40</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>4.0663242285714295E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>43</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>4.1112087007017614E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>86</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>3.6819204801200309E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>46</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>2.2200000000000001E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>110</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>8.9003750937734424E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>2</v>
       </c>
@@ -3003,7 +3003,7 @@
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>3</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>4</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>6</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>7</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>84</v>
       </c>
@@ -3048,12 +3048,12 @@
       <c r="L75"/>
       <c r="M75"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>9</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>94</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>23</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>3.5431997819569406E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>92</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>0.21666666709999999</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>40</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>49</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>1.4513208655670705E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>110</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>2</v>
       </c>
@@ -3305,7 +3305,7 @@
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>3</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>4</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>6</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>7</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>84</v>
       </c>
@@ -3350,12 +3350,12 @@
       <c r="L90"/>
       <c r="M90"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>9</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>97</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>94</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>1.3269319813136347</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>23</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>0.61115429177263814</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>51</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>2.3759518007483698E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>110</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>7.6325846913250742E-4</v>
       </c>
     </row>
-    <row r="99" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>2</v>
       </c>
@@ -3580,7 +3580,7 @@
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>3</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>4</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>6</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>7</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>84</v>
       </c>
@@ -3625,12 +3625,12 @@
       <c r="L104"/>
       <c r="M104"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>9</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>99</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>23</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>0.39015988229575632</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>97</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>0.83345308632699433</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>40</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>0.11425597399598367</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>49</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>7.8347027433868524E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>110</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>0.39173513716934261</v>
       </c>
     </row>
-    <row r="114" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>2</v>
       </c>
@@ -3892,7 +3892,7 @@
       <c r="L114" s="3"/>
       <c r="M114" s="3"/>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>3</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>4</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>6</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>7</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>84</v>
       </c>
@@ -3937,12 +3937,12 @@
       <c r="L119"/>
       <c r="M119"/>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>9</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>102</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>23</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>0.45836571882947852</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>99</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>22.101356567363176</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>110</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>0.45728286044739258</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>40</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>0.64352414285714288</v>
       </c>
     </row>
-    <row r="128" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>2</v>
       </c>
@@ -4166,7 +4166,7 @@
       <c r="L128" s="3"/>
       <c r="M128" s="3"/>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>3</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>4</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>6</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>7</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>84</v>
       </c>
@@ -4211,12 +4211,12 @@
       <c r="L133"/>
       <c r="M133"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>9</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>106</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>110</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>1.3116406332497075</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>102</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>9.54874381005789E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>40</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>0.75880276045271033</v>
       </c>
     </row>
-    <row r="141" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>2</v>
       </c>
@@ -4412,7 +4412,7 @@
       <c r="L141" s="3"/>
       <c r="M141" s="3"/>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>3</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>4</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>6</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>7</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>84</v>
       </c>
@@ -4457,12 +4457,12 @@
       <c r="L146"/>
       <c r="M146"/>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>9</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>135</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>23</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>0.91667643377269736</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>106</v>
       </c>
@@ -4597,7 +4597,7 @@
         <v>35.395202422566165</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>23</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>1.0389622960134846</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>40</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>1.0034440819843768</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>23</v>
       </c>
@@ -4703,7 +4703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1599C6BA-732D-4375-BD9F-8755CA76F9AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -4713,21 +4713,21 @@
       <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.6640625" customWidth="1"/>
+    <col min="1" max="1" width="51.7109375" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
-    <col min="6" max="6" width="20.5" customWidth="1"/>
-    <col min="7" max="7" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="8.5" customWidth="1"/>
-    <col min="13" max="13" width="8.5" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>84</v>
       </c>
@@ -4781,12 +4781,12 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>108</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>0.52269439874826651</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>0.52269439874826651</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
@@ -4930,7 +4930,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -4949,7 +4949,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>84</v>
       </c>
@@ -4987,12 +4987,12 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>112</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -5091,7 +5091,7 @@
         <v>3.2037024043148149E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -5126,7 +5126,7 @@
         <v>6.3544991323960598E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>0.74909590556190686</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>0.25974268486633623</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>0.51431269492042531</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -5254,7 +5254,7 @@
         <v>0.18977295444631392</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>5.2655713531501343E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>5.2655713531501343E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>2</v>
       </c>
@@ -5331,7 +5331,7 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -5350,7 +5350,7 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>84</v>
       </c>
@@ -5388,12 +5388,12 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>113</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>112</v>
       </c>
@@ -5494,7 +5494,7 @@
         <v>0.59920650136326159</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>0.59920650157820599</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>0.24351186560164231</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>7.9972927927380907E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>108</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>0.3998646396369045</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>2</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -5658,7 +5658,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>84</v>
       </c>
@@ -5688,12 +5688,12 @@
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>9</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>114</v>
       </c>
@@ -5760,7 +5760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>0.36741820765295391</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>113</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>1.5761395909903189</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -5862,7 +5862,7 @@
         <v>3.534598956021244E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>0.55074708798731764</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>108</v>
       </c>
@@ -5932,7 +5932,7 @@
         <v>1.2978149278579942</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>56</v>
       </c>
@@ -5964,7 +5964,7 @@
         <v>0.94115587037256665</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>56</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>108</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>43</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>2</v>
       </c>
@@ -6135,7 +6135,7 @@
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>3</v>
       </c>
@@ -6154,7 +6154,7 @@
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>84</v>
       </c>
@@ -6192,12 +6192,12 @@
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>9</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>136</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>114</v>
       </c>
@@ -6270,7 +6270,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>56</v>
       </c>
@@ -6294,7 +6294,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>108</v>
       </c>
@@ -6318,7 +6318,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>56</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>56</v>
       </c>
@@ -6366,7 +6366,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>56</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>56</v>
       </c>
@@ -6413,13 +6413,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M88" xr:uid="{1599C6BA-732D-4375-BD9F-8755CA76F9AC}"/>
+  <autoFilter ref="A1:M88"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6DC271-E81D-443A-A1A9-50EFDE2377AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -6429,18 +6429,18 @@
       <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.5" customWidth="1"/>
-    <col min="2" max="2" width="30.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
-    <col min="6" max="6" width="20.5" customWidth="1"/>
-    <col min="7" max="7" width="27.1640625" customWidth="1"/>
+    <col min="1" max="1" width="72.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -6456,7 +6456,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -6464,7 +6464,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>84</v>
       </c>
@@ -6494,12 +6494,12 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -6563,7 +6563,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>9.3090648927145761E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -6630,7 +6630,7 @@
         <v>5.6919812832586401E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -6662,7 +6662,7 @@
         <v>0.74909590556190686</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>0.66460817874058786</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>108</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>0.51431269492042531</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>0.10707245441294824</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>0.10707245441294824</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>0.10707245441294824</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>84</v>
       </c>
@@ -6870,12 +6870,12 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>116</v>
       </c>
@@ -6939,7 +6939,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>115</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>1.3526011560693647</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>0.14548269738856356</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -7044,7 +7044,7 @@
         <v>3.8395410491546822E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -7079,7 +7079,7 @@
         <v>0.11228323699421963</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>108</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>0.38992350819244653</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>2</v>
       </c>
@@ -7122,7 +7122,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -7130,7 +7130,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -7138,7 +7138,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -7146,7 +7146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -7154,7 +7154,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>84</v>
       </c>
@@ -7168,12 +7168,12 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>9</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>117</v>
       </c>
@@ -7237,7 +7237,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>116</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>0.21659112224917612</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>40</v>
       </c>
@@ -7295,7 +7295,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -7330,7 +7330,7 @@
         <v>7.6706639298112963E-5</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>108</v>
       </c>
@@ -7365,7 +7365,7 @@
         <v>3.6261320395471571E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>2</v>
       </c>
@@ -7373,7 +7373,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -7397,7 +7397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>84</v>
       </c>
@@ -7419,12 +7419,12 @@
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>9</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>118</v>
       </c>
@@ -7488,7 +7488,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>23</v>
       </c>
@@ -7520,7 +7520,7 @@
         <v>0.61115429177263814</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>117</v>
       </c>
@@ -7555,7 +7555,7 @@
         <v>1.2995655942475342</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>51</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>1.7985265210544606E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>108</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>5.777644978832736E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>2</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>84</v>
       </c>
@@ -7679,12 +7679,12 @@
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -7725,7 +7725,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>119</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>23</v>
       </c>
@@ -7780,7 +7780,7 @@
         <v>0.61013301059195868</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>118</v>
       </c>
@@ -7815,7 +7815,7 @@
         <v>1.3020081461600577</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -7850,7 +7850,7 @@
         <v>1.4732026978988839E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>108</v>
       </c>
@@ -7885,7 +7885,7 @@
         <v>4.9106756596629473E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>2</v>
       </c>
@@ -7893,7 +7893,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>3</v>
       </c>
@@ -7901,7 +7901,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>4</v>
       </c>
@@ -7909,7 +7909,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -7917,7 +7917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -7925,7 +7925,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>84</v>
       </c>
@@ -7939,12 +7939,12 @@
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>9</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
         <v>121</v>
       </c>
@@ -8008,7 +8008,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
         <v>119</v>
       </c>
@@ -8043,7 +8043,7 @@
         <v>1.0151415872293006</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>23</v>
       </c>
@@ -8075,7 +8075,7 @@
         <v>0.47723702907082671</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>43</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>0.47723702907082671</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>63</v>
       </c>
@@ -8139,7 +8139,7 @@
         <v>0.47723702907082671</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>23</v>
       </c>
@@ -8171,7 +8171,7 @@
         <v>0.48045558304237562</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>40</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>0.48045558304237562</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>40</v>
       </c>
@@ -8238,7 +8238,7 @@
         <v>0.30712999250089923</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>49</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>7.4416422213269079E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>108</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>0.37208211106634548</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>65</v>
       </c>
@@ -8331,7 +8331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>67</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>69</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>2</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>4</v>
       </c>
@@ -8401,7 +8401,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>6</v>
       </c>
@@ -8409,7 +8409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>84</v>
       </c>
@@ -8431,12 +8431,12 @@
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>9</v>
       </c>
@@ -8477,7 +8477,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
         <v>122</v>
       </c>
@@ -8500,7 +8500,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
         <v>121</v>
       </c>
@@ -8535,7 +8535,7 @@
         <v>1.7544365213315836</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>23</v>
       </c>
@@ -8567,7 +8567,7 @@
         <v>3.4560269466645081E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -8602,7 +8602,7 @@
         <v>9.8018565658381823E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>40</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>40</v>
       </c>
@@ -8660,7 +8660,7 @@
         <v>0.55595767919143801</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>2</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>3</v>
       </c>
@@ -8676,7 +8676,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>4</v>
       </c>
@@ -8684,7 +8684,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>6</v>
       </c>
@@ -8692,7 +8692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -8700,7 +8700,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>84</v>
       </c>
@@ -8714,12 +8714,12 @@
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>9</v>
       </c>
@@ -8760,7 +8760,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
         <v>137</v>
       </c>
@@ -8783,7 +8783,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>122</v>
       </c>
@@ -8818,7 +8818,7 @@
         <v>34.483263219542692</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>23</v>
       </c>
@@ -8850,7 +8850,7 @@
         <v>0.9167314376589567</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>108</v>
       </c>
@@ -8885,7 +8885,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>40</v>
       </c>
@@ -8920,7 +8920,7 @@
         <v>1.0753018823529392</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>23</v>
       </c>
@@ -8952,7 +8952,7 @@
         <v>0.91673143765895704</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>40</v>
       </c>
@@ -8984,7 +8984,7 @@
         <v>1.0034440819843768</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>23</v>
       </c>
@@ -9017,13 +9017,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M128" xr:uid="{DF6DC271-E81D-443A-A1A9-50EFDE2377AA}"/>
+  <autoFilter ref="A1:M128"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3556D1EF-4EF4-4B8B-BAF6-B24B40E69E17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -9033,18 +9033,18 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="73.83203125" customWidth="1"/>
-    <col min="2" max="2" width="30.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
-    <col min="6" max="6" width="20.5" customWidth="1"/>
-    <col min="7" max="7" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="73.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -9052,7 +9052,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -9060,7 +9060,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -9068,7 +9068,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -9076,7 +9076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -9084,7 +9084,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>84</v>
       </c>
@@ -9098,12 +9098,12 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -9144,7 +9144,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>123</v>
       </c>
@@ -9167,7 +9167,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -9199,7 +9199,7 @@
         <v>2.7779935872962354E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -9234,7 +9234,7 @@
         <v>6.0666164461115717E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -9266,7 +9266,7 @@
         <v>0.74909590556190686</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>0.14818552452598799</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>108</v>
       </c>
@@ -9333,7 +9333,7 @@
         <v>0.51431269492042531</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -9362,7 +9362,7 @@
         <v>0.18977295444631392</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -9391,7 +9391,7 @@
         <v>5.2655713531501343E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -9420,7 +9420,7 @@
         <v>5.2655713531501343E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
@@ -9428,7 +9428,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -9436,7 +9436,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -9444,7 +9444,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -9452,7 +9452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -9460,7 +9460,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>84</v>
       </c>
@@ -9474,12 +9474,12 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
@@ -9520,7 +9520,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>124</v>
       </c>
@@ -9543,7 +9543,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -9575,7 +9575,7 @@
         <v>0.90756292703322261</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>123</v>
       </c>
@@ -9610,7 +9610,7 @@
         <v>1.3023346995193703</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -9633,7 +9633,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -9668,7 +9668,7 @@
         <v>5.6408177308533841E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>86</v>
       </c>
@@ -9703,7 +9703,7 @@
         <v>4.4670306162519574E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -9738,7 +9738,7 @@
         <v>4.9836855125025125E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>108</v>
       </c>
@@ -9773,7 +9773,7 @@
         <v>3.4815343787608033E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -9781,7 +9781,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -9789,7 +9789,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -9797,7 +9797,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -9805,7 +9805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -9813,7 +9813,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>84</v>
       </c>
@@ -9827,12 +9827,12 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>9</v>
       </c>
@@ -9873,7 +9873,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>125</v>
       </c>
@@ -9896,7 +9896,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>124</v>
       </c>
@@ -9931,7 +9931,7 @@
         <v>1.2912094193757218</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>23</v>
       </c>
@@ -9963,7 +9963,7 @@
         <v>0.59266937550012422</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>40</v>
       </c>
@@ -9998,7 +9998,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -10033,7 +10033,7 @@
         <v>1.8595459012896371E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>108</v>
       </c>
@@ -10068,7 +10068,7 @@
         <v>7.4381836051585467E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>2</v>
       </c>
@@ -10076,7 +10076,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>3</v>
       </c>
@@ -10084,7 +10084,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -10092,7 +10092,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -10100,7 +10100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -10108,7 +10108,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>84</v>
       </c>
@@ -10122,12 +10122,12 @@
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>9</v>
       </c>
@@ -10168,7 +10168,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>126</v>
       </c>
@@ -10191,7 +10191,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>23</v>
       </c>
@@ -10223,7 +10223,7 @@
         <v>0.4333915585189857</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>125</v>
       </c>
@@ -10246,7 +10246,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>40</v>
       </c>
@@ -10281,7 +10281,7 @@
         <v>0.107050223892699</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>49</v>
       </c>
@@ -10316,7 +10316,7 @@
         <v>6.4646514312948086E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>108</v>
       </c>
@@ -10351,7 +10351,7 @@
         <v>0.3232325715647405</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -10359,7 +10359,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>3</v>
       </c>
@@ -10367,7 +10367,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>4</v>
       </c>
@@ -10375,7 +10375,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -10383,7 +10383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -10391,7 +10391,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>84</v>
       </c>
@@ -10405,12 +10405,12 @@
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>9</v>
       </c>
@@ -10451,7 +10451,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>127</v>
       </c>
@@ -10474,7 +10474,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>126</v>
       </c>
@@ -10509,7 +10509,7 @@
         <v>1.5302231272360307</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>23</v>
       </c>
@@ -10541,7 +10541,7 @@
         <v>3.2871786395504608E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>108</v>
       </c>
@@ -10573,7 +10573,7 @@
         <v>7.4238824986050014E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>40</v>
       </c>
@@ -10608,7 +10608,7 @@
         <v>3.8220588336952341E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>108</v>
       </c>
@@ -10643,7 +10643,7 @@
         <v>1.3116406331013628</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>40</v>
       </c>
@@ -10678,7 +10678,7 @@
         <v>0.54785028660538659</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>2</v>
       </c>
@@ -10686,7 +10686,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>3</v>
       </c>
@@ -10694,7 +10694,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -10702,7 +10702,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>6</v>
       </c>
@@ -10710,7 +10710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -10718,7 +10718,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>84</v>
       </c>
@@ -10732,12 +10732,12 @@
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>9</v>
       </c>
@@ -10778,7 +10778,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
         <v>138</v>
       </c>
@@ -10801,7 +10801,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
         <v>127</v>
       </c>
@@ -10836,7 +10836,7 @@
         <v>35.397326262141888</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>23</v>
       </c>
@@ -10868,7 +10868,7 @@
         <v>0.89505642143162656</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>108</v>
       </c>
@@ -10900,7 +10900,7 @@
         <v>2.0214276225763586</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>40</v>
       </c>
@@ -10935,7 +10935,7 @@
         <v>1.0406974117647063</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>23</v>
       </c>
@@ -10967,7 +10967,7 @@
         <v>0.895056421431627</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>40</v>
       </c>
@@ -10999,7 +10999,7 @@
         <v>0.90664754423415661</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>23</v>
       </c>
@@ -11038,29 +11038,29 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E8B52D-FC69-4B99-B4D8-331174B70E38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="A1:M105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="138" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A84" zoomScale="138" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.5" customWidth="1"/>
-    <col min="2" max="2" width="30.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" customWidth="1"/>
-    <col min="7" max="7" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="49.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
     <col min="14" max="15" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -11068,7 +11068,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -11076,7 +11076,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -11084,7 +11084,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -11092,7 +11092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -11100,7 +11100,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>84</v>
       </c>
@@ -11114,12 +11114,12 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -11160,7 +11160,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>108</v>
       </c>
@@ -11183,7 +11183,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -11215,7 +11215,7 @@
         <v>0.52269439874826651</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -11244,7 +11244,7 @@
         <v>0.52269439874826651</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -11252,7 +11252,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -11260,7 +11260,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -11268,7 +11268,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -11276,7 +11276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -11284,7 +11284,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>84</v>
       </c>
@@ -11298,12 +11298,12 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -11344,7 +11344,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>128</v>
       </c>
@@ -11367,7 +11367,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -11396,7 +11396,7 @@
         <v>0.27989096928158774</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -11428,7 +11428,7 @@
         <v>1.0034440819843768</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -11460,7 +11460,7 @@
         <v>1.0034440819843768</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>108</v>
       </c>
@@ -11492,7 +11492,7 @@
         <v>0.27989096928158774</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -11524,7 +11524,7 @@
         <v>0.27989096928158774</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -11532,7 +11532,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -11540,7 +11540,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -11548,7 +11548,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -11556,7 +11556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -11564,7 +11564,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>84</v>
       </c>
@@ -11578,12 +11578,12 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>9</v>
       </c>
@@ -11624,7 +11624,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>130</v>
       </c>
@@ -11647,7 +11647,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>128</v>
       </c>
@@ -11679,7 +11679,7 @@
         <v>0.27989096928158774</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -11711,7 +11711,7 @@
         <v>1.0034440819843768</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -11743,7 +11743,7 @@
         <v>1.0034440819843768</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>108</v>
       </c>
@@ -11766,7 +11766,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -11798,7 +11798,7 @@
         <v>1.0034440819843768</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -11830,7 +11830,7 @@
         <v>1.0034440819843768</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>65</v>
       </c>
@@ -11853,7 +11853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>67</v>
       </c>
@@ -11876,7 +11876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>69</v>
       </c>
@@ -11899,7 +11899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>2</v>
       </c>
@@ -11907,7 +11907,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>3</v>
       </c>
@@ -11915,7 +11915,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -11923,7 +11923,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -11931,7 +11931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -11939,7 +11939,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>84</v>
       </c>
@@ -11953,12 +11953,12 @@
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>9</v>
       </c>
@@ -11999,7 +11999,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>132</v>
       </c>
@@ -12022,7 +12022,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>130</v>
       </c>
@@ -12054,7 +12054,7 @@
         <v>0.27989096928158774</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -12086,7 +12086,7 @@
         <v>0.21143713147359924</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -12118,7 +12118,7 @@
         <v>0.21143713147359924</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>2</v>
       </c>
@@ -12126,7 +12126,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>3</v>
       </c>
@@ -12134,7 +12134,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -12142,7 +12142,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -12150,7 +12150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -12158,7 +12158,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>84</v>
       </c>
@@ -12172,12 +12172,12 @@
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>9</v>
       </c>
@@ -12218,7 +12218,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>99</v>
       </c>
@@ -12241,7 +12241,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>132</v>
       </c>
@@ -12273,7 +12273,7 @@
         <v>0.27989096928158774</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>40</v>
       </c>
@@ -12308,7 +12308,7 @@
         <v>0.31331205474511709</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>49</v>
       </c>
@@ -12343,7 +12343,7 @@
         <v>8.0330920828764557E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>108</v>
       </c>
@@ -12378,7 +12378,7 @@
         <v>0.40165460414382265</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>2</v>
       </c>
@@ -12386,7 +12386,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>3</v>
       </c>
@@ -12394,7 +12394,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>4</v>
       </c>
@@ -12402,7 +12402,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -12410,7 +12410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -12418,7 +12418,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>84</v>
       </c>
@@ -12432,12 +12432,12 @@
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>9</v>
       </c>
@@ -12478,7 +12478,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
         <v>106</v>
       </c>
@@ -12501,7 +12501,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
         <v>99</v>
       </c>
@@ -12536,7 +12536,7 @@
         <v>1.2314509814687202</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>60</v>
       </c>
@@ -12568,7 +12568,7 @@
         <v>3.3667821691697741E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>108</v>
       </c>
@@ -12600,7 +12600,7 @@
         <v>7.4238824986050014E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>40</v>
       </c>
@@ -12635,7 +12635,7 @@
         <v>4.0244585009968296E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>108</v>
       </c>
@@ -12670,7 +12670,7 @@
         <v>1.3116406331013628</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>40</v>
       </c>
@@ -12705,7 +12705,7 @@
         <v>0.57213428232804164</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>2</v>
       </c>
@@ -12713,7 +12713,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>3</v>
       </c>
@@ -12721,7 +12721,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -12729,7 +12729,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -12737,7 +12737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -12745,7 +12745,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>84</v>
       </c>
@@ -12759,12 +12759,12 @@
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>9</v>
       </c>
@@ -12805,7 +12805,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>139</v>
       </c>
@@ -12828,7 +12828,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
         <v>106</v>
       </c>
@@ -12863,7 +12863,7 @@
         <v>35.397326262141881</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>60</v>
       </c>
@@ -12895,7 +12895,7 @@
         <v>0.91673143765895648</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>108</v>
       </c>
@@ -12927,7 +12927,7 @@
         <v>2.1333389546514319</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>40</v>
       </c>
@@ -12962,7 +12962,7 @@
         <v>1.0958082352941181</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>60</v>
       </c>
@@ -12994,7 +12994,7 @@
         <v>1.0143972776225105</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>40</v>
       </c>
@@ -13026,7 +13026,7 @@
         <v>0.90664754423415661</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>60</v>
       </c>
@@ -13059,26 +13059,26 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M105" xr:uid="{62E8B52D-FC69-4B99-B4D8-331174B70E38}"/>
+  <autoFilter ref="A1:M105"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD2BA03A-8E76-4940-9614-A8DB44B2B195}">
-  <dimension ref="A1:M21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.1640625" customWidth="1"/>
+    <col min="1" max="1" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -13086,7 +13086,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -13094,7 +13094,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -13102,7 +13102,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -13110,7 +13110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -13118,7 +13118,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>84</v>
       </c>
@@ -13132,12 +13132,12 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -13178,7 +13178,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>142</v>
       </c>
@@ -13201,240 +13201,552 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>135</v>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10">
+        <f>0.604+0.082+0.274+0.034+0.55</f>
+        <v>1.544</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12">
+        <f>0.5/1000</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>-6.9077552789821368</v>
+      </c>
+      <c r="K12">
+        <v>0.52269439874826651</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13">
+        <f>5000/3.6/1000</f>
+        <v>1.3888888888888888</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14">
+        <f>3000/1000</f>
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16">
+        <f>0.1/1000</f>
+        <v>1E-4</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17">
+        <f>0.05/1000</f>
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D11" s="9">
         <f>0.575440888308295*1.05</f>
         <v>0.60421293272370979</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="E11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="G11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D12" s="9">
         <f>0.0783801436969301*1.05</f>
         <v>8.2299150881776612E-2</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="E12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="G12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D13" s="9">
         <f>0.261267145656434*1.05</f>
         <v>0.2743305029392557</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="E13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+      <c r="G13" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D14" s="9">
         <f>0.0326583932070542*1.05</f>
         <v>3.4291312867406915E-2</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="E14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="G14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D15" s="9">
         <f>0.0522534291312867*1.05</f>
         <v>5.486610058785104E-2</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="E15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="G15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>1.1499999999999999</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="E16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="G16" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>53</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <f>0.5/1000</f>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>54</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F17" t="s">
         <v>20</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G17" t="s">
         <v>21</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H17" t="s">
         <v>22</v>
       </c>
-      <c r="I16">
+      <c r="I17">
         <v>2</v>
       </c>
-      <c r="J16">
+      <c r="J17">
         <v>-6.9077552789821368</v>
       </c>
-      <c r="K16">
+      <c r="K17">
         <v>0.52269439874826651</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>147</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>148</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>45</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <f>5000/3.6/1000</f>
         <v>1.3888888888888888</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="G18" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>149</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>150</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>45</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <f>3000/1000</f>
         <v>3</v>
       </c>
-      <c r="E18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19">
-        <v>21</v>
-      </c>
       <c r="E19" t="s">
         <v>42</v>
       </c>
@@ -13445,45 +13757,68 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>151</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <f>0.1/1000</f>
         <v>1E-4</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="E21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
         <v>20</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G21" t="s">
         <v>21</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H21" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>152</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <f>0.05/1000</f>
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="E22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
         <v>20</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G22" t="s">
         <v>21</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H22" t="s">
         <v>66</v>
       </c>
     </row>

--- a/premise/data/additional_inventories/lci-lithium.xlsx
+++ b/premise/data/additional_inventories/lci-lithium.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahnme_a\PycharmProjects\premise\premise\data\additional_inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD59F9B-73C5-9745-8790-F5EF051E0105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="675" yWindow="2025" windowWidth="29040" windowHeight="17520" tabRatio="847" activeTab="7"/>
+    <workbookView xWindow="680" yWindow="2020" windowWidth="29040" windowHeight="17520" tabRatio="847" activeTab="6" xr2:uid="{EF7E5FDC-15C0-45A1-93C9-9ABA15D611A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="3" r:id="rId1"/>
@@ -20,14 +21,13 @@
     <sheet name="LCI - Salar del Hombre Muerto" sheetId="6" r:id="rId6"/>
     <sheet name="LCI - Chaerhan salt lake" sheetId="7" r:id="rId7"/>
     <sheet name="LCI - Lithium hydroxide" sheetId="18" r:id="rId8"/>
-    <sheet name="LCI - Lithium hydroxide (old)" sheetId="19" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'LCI - Chaerhan salt lake'!$A$1:$M$105</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'LCI - Salar de Cauchari-Olaroz'!$A$1:$M$128</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'LCI - Salar de Olaroz'!$A$1:$M$88</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,15 +47,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="Query - CF_results_alternative_lithium_ecoinvent_regions_2022-02-14" description="Connection to the 'CF_results_alternative_lithium_ecoinvent_regions_2022-02-14' query in the workbook." type="5" refreshedVersion="7" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{3FE61BE9-A688-4A7C-B619-D28C550B4BCA}" keepAlive="1" name="Query - CF_results_alternative_lithium_ecoinvent_regions_2022-02-14" description="Connection to the 'CF_results_alternative_lithium_ecoinvent_regions_2022-02-14' query in the workbook." type="5" refreshedVersion="7" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=CF_results_alternative_lithium_ecoinvent_regions_2022-02-14;Extended Properties=&quot;&quot;" command="SELECT * FROM [CF_results_alternative_lithium_ecoinvent_regions_2022-02-14]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2609" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2533" uniqueCount="158">
   <si>
     <t>database</t>
   </si>
@@ -536,7 +536,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -924,7 +924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A3B33F-DDA2-424C-84A1-C31A11594DB6}">
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
@@ -934,44 +934,44 @@
       <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.140625" style="4" customWidth="1"/>
-    <col min="2" max="3" width="11.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="39.1640625" style="4" customWidth="1"/>
+    <col min="2" max="3" width="11.5" style="4" customWidth="1"/>
     <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>78</v>
       </c>
@@ -983,21 +983,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC99707D-554A-864F-96F5-71793F44A41F}">
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1019,7 +1019,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1033,7 +1033,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1047,7 +1047,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1061,7 +1061,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1075,7 +1075,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>84</v>
       </c>
@@ -1089,7 +1089,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1101,7 +1101,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>134</v>
       </c>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>135</v>
       </c>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>136</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>137</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>138</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>139</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>154</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
@@ -1308,7 +1308,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>3</v>
       </c>
@@ -1322,7 +1322,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>4</v>
       </c>
@@ -1336,7 +1336,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
@@ -1350,7 +1350,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>7</v>
       </c>
@@ -1364,7 +1364,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>84</v>
       </c>
@@ -1378,7 +1378,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>8</v>
       </c>
@@ -1390,7 +1390,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>9</v>
       </c>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>155</v>
       </c>
@@ -1438,7 +1438,7 @@
       </c>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>142</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>154</v>
       </c>
@@ -1491,30 +1491,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5847DB-F772-4DD2-AE56-2F21E3F4EB40}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:M154"/>
   <sheetViews>
-    <sheetView topLeftCell="A123" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="E150" sqref="E150"/>
+    <sheetView zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="49.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="2" customWidth="1"/>
     <col min="9" max="13" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1541,7 +1541,7 @@
       <c r="L2"/>
       <c r="M2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1560,7 +1560,7 @@
       <c r="L3"/>
       <c r="M3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1579,7 +1579,7 @@
       <c r="L4"/>
       <c r="M4"/>
     </row>
-    <row r="5" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1598,7 +1598,7 @@
       <c r="L5"/>
       <c r="M5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>84</v>
       </c>
@@ -1611,7 +1611,7 @@
       <c r="L6"/>
       <c r="M6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1628,7 +1628,7 @@
       <c r="L7"/>
       <c r="M7"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>108</v>
       </c>
@@ -1698,7 +1698,7 @@
       <c r="L9"/>
       <c r="M9"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1733,7 +1733,7 @@
       <c r="L10"/>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -1766,7 +1766,7 @@
       <c r="L11"/>
       <c r="M11"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -1781,7 +1781,7 @@
       <c r="L12"/>
       <c r="M12"/>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1809,7 +1809,7 @@
       <c r="L14"/>
       <c r="M14"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1828,7 +1828,7 @@
       <c r="L15"/>
       <c r="M15"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1847,7 +1847,7 @@
       <c r="L16"/>
       <c r="M16"/>
     </row>
-    <row r="17" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1866,7 +1866,7 @@
       <c r="L17"/>
       <c r="M17"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>84</v>
       </c>
@@ -1879,7 +1879,7 @@
       <c r="L18"/>
       <c r="M18"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1896,7 +1896,7 @@
       <c r="L19"/>
       <c r="M19"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f>B14</f>
         <v>filtering, through water ion exchanger</v>
@@ -1968,7 +1968,7 @@
       <c r="L21"/>
       <c r="M21"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -2003,7 +2003,7 @@
       <c r="L22"/>
       <c r="M22"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -2036,7 +2036,7 @@
       <c r="L23"/>
       <c r="M23"/>
     </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -2063,7 +2063,7 @@
       <c r="L26"/>
       <c r="M26"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -2082,7 +2082,7 @@
       <c r="L27"/>
       <c r="M27"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -2101,7 +2101,7 @@
       <c r="L28"/>
       <c r="M28"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -2120,7 +2120,7 @@
       <c r="L29"/>
       <c r="M29"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>84</v>
       </c>
@@ -2133,7 +2133,7 @@
       <c r="L30"/>
       <c r="M30"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -2150,7 +2150,7 @@
       <c r="L31"/>
       <c r="M31"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>86</v>
       </c>
@@ -2220,7 +2220,7 @@
       <c r="L33"/>
       <c r="M33"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>57</v>
       </c>
@@ -2255,7 +2255,7 @@
       <c r="L34"/>
       <c r="M34"/>
     </row>
-    <row r="36" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>2</v>
       </c>
@@ -2274,7 +2274,7 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>3</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>4</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>6</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>7</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>84</v>
       </c>
@@ -2319,12 +2319,12 @@
       <c r="L41"/>
       <c r="M41"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>9</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>88</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>19</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>0.13720384492617166</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>23</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>2.5843527381338785E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>28</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>0.21699341161764388</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>108</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>0.1110776002800187</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>38</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>0.26400000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>31</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>0.18977295444631392</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>34</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>5.2655713531501343E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>36</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>5.2655713531501343E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>2</v>
       </c>
@@ -2660,7 +2660,7 @@
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>3</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>4</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>6</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>7</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>84</v>
       </c>
@@ -2705,12 +2705,12 @@
       <c r="L59"/>
       <c r="M59"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>9</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>92</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>88</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>1.2896000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>40</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>4.0663242285714295E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>43</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>4.1112087007017614E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>86</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>3.6819204801200309E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>46</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>2.2200000000000001E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>110</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>8.9003750937734424E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>2</v>
       </c>
@@ -3003,7 +3003,7 @@
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>3</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>4</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>6</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>7</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>84</v>
       </c>
@@ -3048,12 +3048,12 @@
       <c r="L75"/>
       <c r="M75"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>9</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>94</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>23</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>3.5431997819569406E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>92</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>0.21666666709999999</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>40</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>49</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>1.4513208655670705E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>110</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>2</v>
       </c>
@@ -3305,7 +3305,7 @@
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>3</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>4</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>6</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>7</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>84</v>
       </c>
@@ -3350,12 +3350,12 @@
       <c r="L90"/>
       <c r="M90"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>9</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>97</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>94</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>1.3269319813136347</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>23</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>0.61115429177263814</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>51</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>2.3759518007483698E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>110</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>7.6325846913250742E-4</v>
       </c>
     </row>
-    <row r="99" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>2</v>
       </c>
@@ -3580,7 +3580,7 @@
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>3</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>4</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>6</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>7</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>84</v>
       </c>
@@ -3625,12 +3625,12 @@
       <c r="L104"/>
       <c r="M104"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>9</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>99</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>23</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>0.39015988229575632</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>97</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>0.83345308632699433</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>40</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>0.11425597399598367</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>49</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>7.8347027433868524E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>110</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>0.39173513716934261</v>
       </c>
     </row>
-    <row r="114" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>2</v>
       </c>
@@ -3892,7 +3892,7 @@
       <c r="L114" s="3"/>
       <c r="M114" s="3"/>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>3</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>4</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>6</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>7</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>84</v>
       </c>
@@ -3937,12 +3937,12 @@
       <c r="L119"/>
       <c r="M119"/>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>9</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>102</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>23</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>0.45836571882947852</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>99</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>22.101356567363176</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>110</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>0.45728286044739258</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>40</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>0.64352414285714288</v>
       </c>
     </row>
-    <row r="128" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>2</v>
       </c>
@@ -4166,7 +4166,7 @@
       <c r="L128" s="3"/>
       <c r="M128" s="3"/>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>3</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>4</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>6</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>7</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>84</v>
       </c>
@@ -4211,12 +4211,12 @@
       <c r="L133"/>
       <c r="M133"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>9</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>106</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>110</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>1.3116406332497075</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>102</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>9.54874381005789E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>40</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>0.75880276045271033</v>
       </c>
     </row>
-    <row r="141" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>2</v>
       </c>
@@ -4412,7 +4412,7 @@
       <c r="L141" s="3"/>
       <c r="M141" s="3"/>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>3</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>4</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>6</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>7</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>84</v>
       </c>
@@ -4457,12 +4457,12 @@
       <c r="L146"/>
       <c r="M146"/>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>9</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>135</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>23</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>0.91667643377269736</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>106</v>
       </c>
@@ -4597,7 +4597,7 @@
         <v>35.395202422566165</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>23</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>1.0389622960134846</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>40</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>1.0034440819843768</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>23</v>
       </c>
@@ -4703,7 +4703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1599C6BA-732D-4375-BD9F-8755CA76F9AC}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -4713,21 +4713,21 @@
       <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="51.7109375" customWidth="1"/>
+    <col min="1" max="1" width="51.6640625" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" customWidth="1"/>
+    <col min="9" max="9" width="8.5" customWidth="1"/>
+    <col min="13" max="13" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>84</v>
       </c>
@@ -4781,12 +4781,12 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>108</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>0.52269439874826651</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>0.52269439874826651</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
@@ -4930,7 +4930,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -4949,7 +4949,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>84</v>
       </c>
@@ -4987,12 +4987,12 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>112</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -5091,7 +5091,7 @@
         <v>3.2037024043148149E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -5126,7 +5126,7 @@
         <v>6.3544991323960598E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>0.74909590556190686</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>0.25974268486633623</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>0.51431269492042531</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -5254,7 +5254,7 @@
         <v>0.18977295444631392</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>5.2655713531501343E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>5.2655713531501343E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>2</v>
       </c>
@@ -5331,7 +5331,7 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -5350,7 +5350,7 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>84</v>
       </c>
@@ -5388,12 +5388,12 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
         <v>113</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
         <v>112</v>
       </c>
@@ -5494,7 +5494,7 @@
         <v>0.59920650136326159</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>0.59920650157820599</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>0.24351186560164231</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>7.9972927927380907E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>108</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>0.3998646396369045</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>2</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -5658,7 +5658,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>84</v>
       </c>
@@ -5688,12 +5688,12 @@
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>9</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
         <v>114</v>
       </c>
@@ -5760,7 +5760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>0.36741820765295391</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
         <v>113</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>1.5761395909903189</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -5862,7 +5862,7 @@
         <v>3.534598956021244E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>0.55074708798731764</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>108</v>
       </c>
@@ -5932,7 +5932,7 @@
         <v>1.2978149278579942</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>56</v>
       </c>
@@ -5964,7 +5964,7 @@
         <v>0.94115587037256665</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>56</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>108</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>43</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>2</v>
       </c>
@@ -6135,7 +6135,7 @@
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>3</v>
       </c>
@@ -6154,7 +6154,7 @@
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>84</v>
       </c>
@@ -6192,12 +6192,12 @@
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>9</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
         <v>136</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
         <v>114</v>
       </c>
@@ -6270,7 +6270,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>56</v>
       </c>
@@ -6294,7 +6294,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
         <v>108</v>
       </c>
@@ -6318,7 +6318,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>56</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>56</v>
       </c>
@@ -6366,7 +6366,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>56</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>56</v>
       </c>
@@ -6413,13 +6413,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M88"/>
+  <autoFilter ref="A1:M88" xr:uid="{1599C6BA-732D-4375-BD9F-8755CA76F9AC}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6DC271-E81D-443A-A1A9-50EFDE2377AA}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -6429,18 +6429,18 @@
       <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="72.42578125" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="72.5" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
+    <col min="7" max="7" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -6456,7 +6456,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -6464,7 +6464,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>84</v>
       </c>
@@ -6494,12 +6494,12 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -6563,7 +6563,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>9.3090648927145761E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -6630,7 +6630,7 @@
         <v>5.6919812832586401E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -6662,7 +6662,7 @@
         <v>0.74909590556190686</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>0.66460817874058786</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>108</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>0.51431269492042531</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>0.10707245441294824</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>0.10707245441294824</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>0.10707245441294824</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>84</v>
       </c>
@@ -6870,12 +6870,12 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>116</v>
       </c>
@@ -6939,7 +6939,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>115</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>1.3526011560693647</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>0.14548269738856356</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -7044,7 +7044,7 @@
         <v>3.8395410491546822E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -7079,7 +7079,7 @@
         <v>0.11228323699421963</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>108</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>0.38992350819244653</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>2</v>
       </c>
@@ -7122,7 +7122,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -7130,7 +7130,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -7138,7 +7138,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -7146,7 +7146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -7154,7 +7154,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>84</v>
       </c>
@@ -7168,12 +7168,12 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>9</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
         <v>117</v>
       </c>
@@ -7237,7 +7237,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>116</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>0.21659112224917612</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>40</v>
       </c>
@@ -7295,7 +7295,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -7330,7 +7330,7 @@
         <v>7.6706639298112963E-5</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>108</v>
       </c>
@@ -7365,7 +7365,7 @@
         <v>3.6261320395471571E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>2</v>
       </c>
@@ -7373,7 +7373,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -7397,7 +7397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>84</v>
       </c>
@@ -7419,12 +7419,12 @@
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>9</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
         <v>118</v>
       </c>
@@ -7488,7 +7488,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>23</v>
       </c>
@@ -7520,7 +7520,7 @@
         <v>0.61115429177263814</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
         <v>117</v>
       </c>
@@ -7555,7 +7555,7 @@
         <v>1.2995655942475342</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>51</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>1.7985265210544606E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>108</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>5.777644978832736E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>2</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>84</v>
       </c>
@@ -7679,12 +7679,12 @@
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -7725,7 +7725,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
         <v>119</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>23</v>
       </c>
@@ -7780,7 +7780,7 @@
         <v>0.61013301059195868</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
         <v>118</v>
       </c>
@@ -7815,7 +7815,7 @@
         <v>1.3020081461600577</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -7850,7 +7850,7 @@
         <v>1.4732026978988839E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>108</v>
       </c>
@@ -7885,7 +7885,7 @@
         <v>4.9106756596629473E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>2</v>
       </c>
@@ -7893,7 +7893,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>3</v>
       </c>
@@ -7901,7 +7901,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>4</v>
       </c>
@@ -7909,7 +7909,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -7917,7 +7917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -7925,7 +7925,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>84</v>
       </c>
@@ -7939,12 +7939,12 @@
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>9</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
         <v>121</v>
       </c>
@@ -8008,7 +8008,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
         <v>119</v>
       </c>
@@ -8043,7 +8043,7 @@
         <v>1.0151415872293006</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>23</v>
       </c>
@@ -8075,7 +8075,7 @@
         <v>0.47723702907082671</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>43</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>0.47723702907082671</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>63</v>
       </c>
@@ -8139,7 +8139,7 @@
         <v>0.47723702907082671</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>23</v>
       </c>
@@ -8171,7 +8171,7 @@
         <v>0.48045558304237562</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>40</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>0.48045558304237562</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>40</v>
       </c>
@@ -8238,7 +8238,7 @@
         <v>0.30712999250089923</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>49</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>7.4416422213269079E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>108</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>0.37208211106634548</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>65</v>
       </c>
@@ -8331,7 +8331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>67</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>69</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>2</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>4</v>
       </c>
@@ -8401,7 +8401,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>6</v>
       </c>
@@ -8409,7 +8409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>84</v>
       </c>
@@ -8431,12 +8431,12 @@
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>9</v>
       </c>
@@ -8477,7 +8477,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
         <v>122</v>
       </c>
@@ -8500,7 +8500,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
         <v>121</v>
       </c>
@@ -8535,7 +8535,7 @@
         <v>1.7544365213315836</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>23</v>
       </c>
@@ -8567,7 +8567,7 @@
         <v>3.4560269466645081E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -8602,7 +8602,7 @@
         <v>9.8018565658381823E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>40</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>40</v>
       </c>
@@ -8660,7 +8660,7 @@
         <v>0.55595767919143801</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>2</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>3</v>
       </c>
@@ -8676,7 +8676,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>4</v>
       </c>
@@ -8684,7 +8684,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>6</v>
       </c>
@@ -8692,7 +8692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -8700,7 +8700,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>84</v>
       </c>
@@ -8714,12 +8714,12 @@
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>9</v>
       </c>
@@ -8760,7 +8760,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
         <v>137</v>
       </c>
@@ -8783,7 +8783,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>122</v>
       </c>
@@ -8818,7 +8818,7 @@
         <v>34.483263219542692</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>23</v>
       </c>
@@ -8850,7 +8850,7 @@
         <v>0.9167314376589567</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>108</v>
       </c>
@@ -8885,7 +8885,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>40</v>
       </c>
@@ -8920,7 +8920,7 @@
         <v>1.0753018823529392</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>23</v>
       </c>
@@ -8952,7 +8952,7 @@
         <v>0.91673143765895704</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>40</v>
       </c>
@@ -8984,7 +8984,7 @@
         <v>1.0034440819843768</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>23</v>
       </c>
@@ -9017,13 +9017,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M128"/>
+  <autoFilter ref="A1:M128" xr:uid="{DF6DC271-E81D-443A-A1A9-50EFDE2377AA}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3556D1EF-4EF4-4B8B-BAF6-B24B40E69E17}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -9033,18 +9033,18 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="73.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="73.83203125" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -9052,7 +9052,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -9060,7 +9060,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -9068,7 +9068,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -9076,7 +9076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -9084,7 +9084,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>84</v>
       </c>
@@ -9098,12 +9098,12 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -9144,7 +9144,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>123</v>
       </c>
@@ -9167,7 +9167,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -9199,7 +9199,7 @@
         <v>2.7779935872962354E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -9234,7 +9234,7 @@
         <v>6.0666164461115717E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -9266,7 +9266,7 @@
         <v>0.74909590556190686</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>0.14818552452598799</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>108</v>
       </c>
@@ -9333,7 +9333,7 @@
         <v>0.51431269492042531</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -9362,7 +9362,7 @@
         <v>0.18977295444631392</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -9391,7 +9391,7 @@
         <v>5.2655713531501343E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -9420,7 +9420,7 @@
         <v>5.2655713531501343E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
@@ -9428,7 +9428,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -9436,7 +9436,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -9444,7 +9444,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -9452,7 +9452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -9460,7 +9460,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>84</v>
       </c>
@@ -9474,12 +9474,12 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
@@ -9520,7 +9520,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>124</v>
       </c>
@@ -9543,7 +9543,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -9575,7 +9575,7 @@
         <v>0.90756292703322261</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>123</v>
       </c>
@@ -9610,7 +9610,7 @@
         <v>1.3023346995193703</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -9633,7 +9633,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -9668,7 +9668,7 @@
         <v>5.6408177308533841E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>86</v>
       </c>
@@ -9703,7 +9703,7 @@
         <v>4.4670306162519574E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -9738,7 +9738,7 @@
         <v>4.9836855125025125E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>108</v>
       </c>
@@ -9773,7 +9773,7 @@
         <v>3.4815343787608033E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -9781,7 +9781,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -9789,7 +9789,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -9797,7 +9797,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -9805,7 +9805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -9813,7 +9813,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>84</v>
       </c>
@@ -9827,12 +9827,12 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>9</v>
       </c>
@@ -9873,7 +9873,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
         <v>125</v>
       </c>
@@ -9896,7 +9896,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
         <v>124</v>
       </c>
@@ -9931,7 +9931,7 @@
         <v>1.2912094193757218</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>23</v>
       </c>
@@ -9963,7 +9963,7 @@
         <v>0.59266937550012422</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>40</v>
       </c>
@@ -9998,7 +9998,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -10033,7 +10033,7 @@
         <v>1.8595459012896371E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>108</v>
       </c>
@@ -10068,7 +10068,7 @@
         <v>7.4381836051585467E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>2</v>
       </c>
@@ -10076,7 +10076,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>3</v>
       </c>
@@ -10084,7 +10084,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -10092,7 +10092,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -10100,7 +10100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -10108,7 +10108,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>84</v>
       </c>
@@ -10122,12 +10122,12 @@
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>9</v>
       </c>
@@ -10168,7 +10168,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
         <v>126</v>
       </c>
@@ -10191,7 +10191,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>23</v>
       </c>
@@ -10223,7 +10223,7 @@
         <v>0.4333915585189857</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
         <v>125</v>
       </c>
@@ -10246,7 +10246,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>40</v>
       </c>
@@ -10281,7 +10281,7 @@
         <v>0.107050223892699</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>49</v>
       </c>
@@ -10316,7 +10316,7 @@
         <v>6.4646514312948086E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>108</v>
       </c>
@@ -10351,7 +10351,7 @@
         <v>0.3232325715647405</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -10359,7 +10359,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>3</v>
       </c>
@@ -10367,7 +10367,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>4</v>
       </c>
@@ -10375,7 +10375,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -10383,7 +10383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -10391,7 +10391,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>84</v>
       </c>
@@ -10405,12 +10405,12 @@
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>9</v>
       </c>
@@ -10451,7 +10451,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
         <v>127</v>
       </c>
@@ -10474,7 +10474,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
         <v>126</v>
       </c>
@@ -10509,7 +10509,7 @@
         <v>1.5302231272360307</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>23</v>
       </c>
@@ -10541,7 +10541,7 @@
         <v>3.2871786395504608E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>108</v>
       </c>
@@ -10573,7 +10573,7 @@
         <v>7.4238824986050014E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>40</v>
       </c>
@@ -10608,7 +10608,7 @@
         <v>3.8220588336952341E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>108</v>
       </c>
@@ -10643,7 +10643,7 @@
         <v>1.3116406331013628</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>40</v>
       </c>
@@ -10678,7 +10678,7 @@
         <v>0.54785028660538659</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>2</v>
       </c>
@@ -10686,7 +10686,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>3</v>
       </c>
@@ -10694,7 +10694,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -10702,7 +10702,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>6</v>
       </c>
@@ -10710,7 +10710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -10718,7 +10718,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>84</v>
       </c>
@@ -10732,12 +10732,12 @@
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>9</v>
       </c>
@@ -10778,7 +10778,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
         <v>138</v>
       </c>
@@ -10801,7 +10801,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
         <v>127</v>
       </c>
@@ -10836,7 +10836,7 @@
         <v>35.397326262141888</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>23</v>
       </c>
@@ -10868,7 +10868,7 @@
         <v>0.89505642143162656</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>108</v>
       </c>
@@ -10900,7 +10900,7 @@
         <v>2.0214276225763586</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>40</v>
       </c>
@@ -10935,7 +10935,7 @@
         <v>1.0406974117647063</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>23</v>
       </c>
@@ -10967,7 +10967,7 @@
         <v>0.895056421431627</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>40</v>
       </c>
@@ -10999,7 +10999,7 @@
         <v>0.90664754423415661</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>23</v>
       </c>
@@ -11038,29 +11038,29 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E8B52D-FC69-4B99-B4D8-331174B70E38}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="A1:M105"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" zoomScale="138" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="138" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.42578125" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="49.5" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" customWidth="1"/>
     <col min="14" max="15" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -11068,7 +11068,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -11076,7 +11076,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -11084,7 +11084,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -11092,7 +11092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -11100,7 +11100,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>84</v>
       </c>
@@ -11114,12 +11114,12 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -11160,7 +11160,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>108</v>
       </c>
@@ -11183,7 +11183,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -11215,7 +11215,7 @@
         <v>0.52269439874826651</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -11244,7 +11244,7 @@
         <v>0.52269439874826651</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -11252,7 +11252,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -11260,7 +11260,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -11268,7 +11268,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -11276,7 +11276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -11284,7 +11284,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>84</v>
       </c>
@@ -11298,12 +11298,12 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -11344,7 +11344,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>128</v>
       </c>
@@ -11367,7 +11367,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -11396,7 +11396,7 @@
         <v>0.27989096928158774</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -11428,7 +11428,7 @@
         <v>1.0034440819843768</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -11460,7 +11460,7 @@
         <v>1.0034440819843768</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>108</v>
       </c>
@@ -11492,7 +11492,7 @@
         <v>0.27989096928158774</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -11524,7 +11524,7 @@
         <v>0.27989096928158774</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -11532,7 +11532,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -11540,7 +11540,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -11548,7 +11548,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -11556,7 +11556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -11564,7 +11564,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>84</v>
       </c>
@@ -11578,12 +11578,12 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>9</v>
       </c>
@@ -11624,7 +11624,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>130</v>
       </c>
@@ -11647,7 +11647,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
         <v>128</v>
       </c>
@@ -11679,7 +11679,7 @@
         <v>0.27989096928158774</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -11711,7 +11711,7 @@
         <v>1.0034440819843768</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -11743,7 +11743,7 @@
         <v>1.0034440819843768</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>108</v>
       </c>
@@ -11766,7 +11766,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -11798,7 +11798,7 @@
         <v>1.0034440819843768</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -11830,7 +11830,7 @@
         <v>1.0034440819843768</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>65</v>
       </c>
@@ -11853,7 +11853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>67</v>
       </c>
@@ -11876,7 +11876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>69</v>
       </c>
@@ -11899,7 +11899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>2</v>
       </c>
@@ -11907,7 +11907,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>3</v>
       </c>
@@ -11915,7 +11915,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -11923,7 +11923,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -11931,7 +11931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -11939,7 +11939,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>84</v>
       </c>
@@ -11953,12 +11953,12 @@
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>9</v>
       </c>
@@ -11999,7 +11999,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>132</v>
       </c>
@@ -12022,7 +12022,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>130</v>
       </c>
@@ -12054,7 +12054,7 @@
         <v>0.27989096928158774</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -12086,7 +12086,7 @@
         <v>0.21143713147359924</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -12118,7 +12118,7 @@
         <v>0.21143713147359924</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>2</v>
       </c>
@@ -12126,7 +12126,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>3</v>
       </c>
@@ -12134,7 +12134,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -12142,7 +12142,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -12150,7 +12150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -12158,7 +12158,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>84</v>
       </c>
@@ -12172,12 +12172,12 @@
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>9</v>
       </c>
@@ -12218,7 +12218,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
         <v>99</v>
       </c>
@@ -12241,7 +12241,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>132</v>
       </c>
@@ -12273,7 +12273,7 @@
         <v>0.27989096928158774</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>40</v>
       </c>
@@ -12308,7 +12308,7 @@
         <v>0.31331205474511709</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>49</v>
       </c>
@@ -12343,7 +12343,7 @@
         <v>8.0330920828764557E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>108</v>
       </c>
@@ -12378,7 +12378,7 @@
         <v>0.40165460414382265</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>2</v>
       </c>
@@ -12386,7 +12386,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>3</v>
       </c>
@@ -12394,7 +12394,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>4</v>
       </c>
@@ -12402,7 +12402,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -12410,7 +12410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -12418,7 +12418,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>84</v>
       </c>
@@ -12432,12 +12432,12 @@
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>9</v>
       </c>
@@ -12478,7 +12478,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
         <v>106</v>
       </c>
@@ -12501,7 +12501,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
         <v>99</v>
       </c>
@@ -12536,7 +12536,7 @@
         <v>1.2314509814687202</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>60</v>
       </c>
@@ -12568,7 +12568,7 @@
         <v>3.3667821691697741E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>108</v>
       </c>
@@ -12600,7 +12600,7 @@
         <v>7.4238824986050014E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>40</v>
       </c>
@@ -12635,7 +12635,7 @@
         <v>4.0244585009968296E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>108</v>
       </c>
@@ -12670,7 +12670,7 @@
         <v>1.3116406331013628</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>40</v>
       </c>
@@ -12705,7 +12705,7 @@
         <v>0.57213428232804164</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>2</v>
       </c>
@@ -12713,7 +12713,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>3</v>
       </c>
@@ -12721,7 +12721,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -12729,7 +12729,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -12737,7 +12737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -12745,7 +12745,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>84</v>
       </c>
@@ -12759,12 +12759,12 @@
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>9</v>
       </c>
@@ -12805,7 +12805,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>139</v>
       </c>
@@ -12828,7 +12828,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
         <v>106</v>
       </c>
@@ -12863,7 +12863,7 @@
         <v>35.397326262141881</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>60</v>
       </c>
@@ -12895,7 +12895,7 @@
         <v>0.91673143765895648</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>108</v>
       </c>
@@ -12927,7 +12927,7 @@
         <v>2.1333389546514319</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>40</v>
       </c>
@@ -12962,7 +12962,7 @@
         <v>1.0958082352941181</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>60</v>
       </c>
@@ -12994,7 +12994,7 @@
         <v>1.0143972776225105</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>40</v>
       </c>
@@ -13026,7 +13026,7 @@
         <v>0.90664754423415661</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>60</v>
       </c>
@@ -13059,26 +13059,26 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M105"/>
+  <autoFilter ref="A1:M105" xr:uid="{62E8B52D-FC69-4B99-B4D8-331174B70E38}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD2BA03A-8E76-4940-9614-A8DB44B2B195}">
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="1" max="1" width="48.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -13086,7 +13086,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -13094,7 +13094,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -13102,7 +13102,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -13110,7 +13110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -13118,7 +13118,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>84</v>
       </c>
@@ -13132,12 +13132,12 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -13178,7 +13178,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>142</v>
       </c>
@@ -13201,593 +13201,279 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>134</v>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10">
-        <f>0.604+0.082+0.274+0.034+0.55</f>
-        <v>1.544</v>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="9">
+        <f>0.575440888308295*1.05</f>
+        <v>0.60421293272370979</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="G10" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="9">
+        <f>0.0783801436969301*1.05</f>
+        <v>8.2299150881776612E-2</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="9">
+        <f>0.261267145656434*1.05</f>
+        <v>0.2743305029392557</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="9">
+        <f>0.0326583932070542*1.05</f>
+        <v>3.4291312867406915E-2</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="9">
+        <f>0.0522534291312867*1.05</f>
+        <v>5.486610058785104E-2</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D11">
+      <c r="D15">
         <v>1.1499999999999999</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="E15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="G15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>53</v>
       </c>
-      <c r="D12">
+      <c r="D16">
         <f>0.5/1000</f>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E16" t="s">
         <v>54</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F16" t="s">
         <v>20</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G16" t="s">
         <v>21</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H16" t="s">
         <v>22</v>
       </c>
-      <c r="I12">
+      <c r="I16">
         <v>2</v>
       </c>
-      <c r="J12">
+      <c r="J16">
         <v>-6.9077552789821368</v>
       </c>
-      <c r="K12">
+      <c r="K16">
         <v>0.52269439874826651</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>147</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B17" t="s">
         <v>148</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C17" t="s">
         <v>45</v>
       </c>
-      <c r="D13">
+      <c r="D17">
         <f>5000/3.6/1000</f>
         <v>1.3888888888888888</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E17" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="G17" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>149</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B18" t="s">
         <v>150</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C18" t="s">
         <v>45</v>
       </c>
-      <c r="D14">
+      <c r="D18">
         <f>3000/1000</f>
         <v>3</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E18" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="G18" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>40</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B19" t="s">
         <v>41</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C19" t="s">
         <v>37</v>
       </c>
-      <c r="D15">
+      <c r="D19">
         <v>21</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E19" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="G19" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>151</v>
       </c>
-      <c r="D16">
+      <c r="D20">
         <f>0.1/1000</f>
         <v>1E-4</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="E20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
         <v>20</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G20" t="s">
         <v>21</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>152</v>
       </c>
-      <c r="D17">
+      <c r="D21">
         <f>0.05/1000</f>
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="48.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="9">
-        <f>0.575440888308295*1.05</f>
-        <v>0.60421293272370979</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="9">
-        <f>0.0783801436969301*1.05</f>
-        <v>8.2299150881776612E-2</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="9">
-        <f>0.261267145656434*1.05</f>
-        <v>0.2743305029392557</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="9">
-        <f>0.0326583932070542*1.05</f>
-        <v>3.4291312867406915E-2</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="9">
-        <f>0.0522534291312867*1.05</f>
-        <v>5.486610058785104E-2</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17">
-        <f>0.5/1000</f>
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="E17" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17">
-        <v>2</v>
-      </c>
-      <c r="J17">
-        <v>-6.9077552789821368</v>
-      </c>
-      <c r="K17">
-        <v>0.52269439874826651</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>147</v>
-      </c>
-      <c r="B18" t="s">
-        <v>148</v>
-      </c>
-      <c r="C18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18">
-        <f>5000/3.6/1000</f>
-        <v>1.3888888888888888</v>
-      </c>
-      <c r="E18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>149</v>
-      </c>
-      <c r="B19" t="s">
-        <v>150</v>
-      </c>
-      <c r="C19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19">
-        <f>3000/1000</f>
-        <v>3</v>
-      </c>
-      <c r="E19" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20">
-        <v>21</v>
-      </c>
-      <c r="E20" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>151</v>
-      </c>
-      <c r="D21">
-        <f>0.1/1000</f>
-        <v>1E-4</v>
-      </c>
       <c r="E21" s="2" t="s">
         <v>17</v>
       </c>
@@ -13798,27 +13484,6 @@
         <v>21</v>
       </c>
       <c r="H21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>152</v>
-      </c>
-      <c r="D22">
-        <f>0.05/1000</f>
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" t="s">
         <v>66</v>
       </c>
     </row>
